--- a/data/data_fraud.xlsx
+++ b/data/data_fraud.xlsx
@@ -512,7 +512,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1086,7 +1086,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1332,7 +1332,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1373,7 +1373,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1455,7 +1455,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1578,7 +1578,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1660,7 +1660,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1906,7 +1906,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2152,7 +2152,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2767,7 +2767,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3054,7 +3054,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3177,7 +3177,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3218,7 +3218,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3259,7 +3259,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3341,7 +3341,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3382,7 +3382,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3587,7 +3587,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3997,7 +3997,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4612,7 +4612,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M103" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -5145,7 +5145,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -5227,7 +5227,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M118" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5596,7 +5596,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M127" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5760,7 +5760,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M131" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -6006,7 +6006,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6416,7 +6416,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M147" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6539,7 +6539,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -7523,7 +7523,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M174" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -7564,7 +7564,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -7769,7 +7769,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M180" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7892,7 +7892,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M183" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -8015,7 +8015,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M186" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -8056,7 +8056,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -8302,7 +8302,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M193" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -8507,7 +8507,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M198" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -8671,7 +8671,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M202" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -9040,7 +9040,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M211" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="M215" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -9327,7 +9327,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M218" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -9450,7 +9450,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M221" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -9491,7 +9491,7 @@
         <v>5</v>
       </c>
       <c r="M222" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -9655,7 +9655,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M226" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -9983,7 +9983,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M234" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -10598,7 +10598,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M249" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -10680,7 +10680,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M251" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -11131,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="M262" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -11213,7 +11213,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M264" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -11418,7 +11418,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M269" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -12402,7 +12402,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M293" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -12443,7 +12443,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M294" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -12566,7 +12566,7 @@
         <v>5</v>
       </c>
       <c r="M297" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -12648,7 +12648,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M299" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -12976,7 +12976,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M307" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -13058,7 +13058,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -13181,7 +13181,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M312" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -13304,7 +13304,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M315" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -14083,7 +14083,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M334" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -14862,7 +14862,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M353" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -15395,7 +15395,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M366" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -15477,7 +15477,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M368" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -15723,7 +15723,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -15846,7 +15846,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M377" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -16133,7 +16133,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M384" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -16338,7 +16338,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M389" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -16379,7 +16379,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M390" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -16543,7 +16543,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M394" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -16830,7 +16830,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M401" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -16912,7 +16912,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M403" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -16994,7 +16994,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M405" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -17035,7 +17035,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M406" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -17076,7 +17076,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M407" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -17486,7 +17486,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M417" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -17814,7 +17814,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M425" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -17978,7 +17978,7 @@
         <v>5</v>
       </c>
       <c r="M429" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -18101,7 +18101,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M432" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -19003,7 +19003,7 @@
         <v>5</v>
       </c>
       <c r="M454" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -19249,7 +19249,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M460" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -19536,7 +19536,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M467" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -19577,7 +19577,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M468" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -19618,7 +19618,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M469" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -19946,7 +19946,7 @@
         <v>5</v>
       </c>
       <c r="M477" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -19987,7 +19987,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M478" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -20233,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="M484" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -20438,7 +20438,7 @@
         <v>5</v>
       </c>
       <c r="M489" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -20561,7 +20561,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M492" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -21053,7 +21053,7 @@
         <v>5</v>
       </c>
       <c r="M504" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -21135,7 +21135,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M506" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -21381,7 +21381,7 @@
         <v>5</v>
       </c>
       <c r="M512" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -21668,7 +21668,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M519" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -21791,7 +21791,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M522" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -21955,7 +21955,7 @@
         <v>5</v>
       </c>
       <c r="M526" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -22201,7 +22201,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M532" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -22283,7 +22283,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M534" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -22447,7 +22447,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M538" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -22488,7 +22488,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M539" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -22570,7 +22570,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M541" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -23021,7 +23021,7 @@
         <v>5</v>
       </c>
       <c r="M552" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="M553" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -23226,7 +23226,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M557" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -23431,7 +23431,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M562" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -23800,7 +23800,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M571" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -23964,7 +23964,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M575" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -24210,7 +24210,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M581" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -24333,7 +24333,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M584" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -24374,7 +24374,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M585" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -24702,7 +24702,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M593" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -24907,7 +24907,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M598" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -25112,7 +25112,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M603" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -25440,7 +25440,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M611" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -25768,7 +25768,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M619" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -25809,7 +25809,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M620" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -25891,7 +25891,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M622" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -28228,7 +28228,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M679" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -28310,7 +28310,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M681" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -28392,7 +28392,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M683" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -28433,7 +28433,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M684" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -28556,7 +28556,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M687" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -28843,7 +28843,7 @@
         <v>5</v>
       </c>
       <c r="M694" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -29868,7 +29868,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M719" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -30237,7 +30237,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M728" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -30319,7 +30319,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M730" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -31139,7 +31139,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M750" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -31303,7 +31303,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M754" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -31959,7 +31959,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M770" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -32205,7 +32205,7 @@
         <v>5</v>
       </c>
       <c r="M776" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -32533,7 +32533,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M784" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -32779,7 +32779,7 @@
         <v>5</v>
       </c>
       <c r="M790" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -32820,7 +32820,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M791" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -33353,7 +33353,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M804" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -33517,7 +33517,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M808" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -33640,7 +33640,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M811" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -33722,7 +33722,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M813" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
@@ -33763,7 +33763,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M814" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -33927,7 +33927,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M818" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -34173,7 +34173,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M824" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -34214,7 +34214,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M825" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -34337,7 +34337,7 @@
         <v>5</v>
       </c>
       <c r="M828" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -34624,7 +34624,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M835" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -34870,7 +34870,7 @@
         <v>5</v>
       </c>
       <c r="M841" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -34952,7 +34952,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M843" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -35157,7 +35157,7 @@
         <v>5</v>
       </c>
       <c r="M848" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -35198,7 +35198,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M849" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -35321,7 +35321,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M852" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -35444,7 +35444,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M855" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -35772,7 +35772,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M863" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -35813,7 +35813,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M864" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -35936,7 +35936,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M867" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -35977,7 +35977,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M868" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -36059,7 +36059,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M870" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -36469,7 +36469,7 @@
         <v>5</v>
       </c>
       <c r="M880" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -36551,7 +36551,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M882" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -37207,7 +37207,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M898" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -37330,7 +37330,7 @@
         <v>5</v>
       </c>
       <c r="M901" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -37371,7 +37371,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M902" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -37412,7 +37412,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M903" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -37781,7 +37781,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M912" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -38191,7 +38191,7 @@
         <v>5</v>
       </c>
       <c r="M922" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923">
@@ -38314,7 +38314,7 @@
         <v>5</v>
       </c>
       <c r="M925" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -38724,7 +38724,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M935" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936">
@@ -38765,7 +38765,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M936" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937">
@@ -38847,7 +38847,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M938" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -39134,7 +39134,7 @@
         <v>5</v>
       </c>
       <c r="M945" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -39544,7 +39544,7 @@
         <v>5</v>
       </c>
       <c r="M955" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -39831,7 +39831,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M962" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -39954,7 +39954,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M965" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -39995,7 +39995,7 @@
         <v>5</v>
       </c>
       <c r="M966" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967">
@@ -40159,7 +40159,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M970" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -40733,7 +40733,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M984" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -40815,7 +40815,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M986" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987">
@@ -41430,7 +41430,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1001" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
@@ -41471,7 +41471,7 @@
         <v>0</v>
       </c>
       <c r="M1002" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -41635,7 +41635,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1006" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007">
@@ -42004,7 +42004,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1015" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016">
@@ -42045,7 +42045,7 @@
         <v>5</v>
       </c>
       <c r="M1016" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017">
@@ -42086,7 +42086,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1017" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -42414,7 +42414,7 @@
         <v>5</v>
       </c>
       <c r="M1025" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -42906,7 +42906,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1037" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038">
@@ -43152,7 +43152,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1043" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044">
@@ -43357,7 +43357,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1048" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049">
@@ -43439,7 +43439,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1050" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051">
@@ -43726,7 +43726,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1057" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058">
@@ -43972,7 +43972,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1063" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064">
@@ -44177,7 +44177,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1068" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069">
@@ -44259,7 +44259,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1070" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071">
@@ -44341,7 +44341,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1072" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -44423,7 +44423,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1074" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075">
@@ -44464,7 +44464,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1075" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076">
@@ -44628,7 +44628,7 @@
         <v>0</v>
       </c>
       <c r="M1079" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -44710,7 +44710,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1081" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082">
@@ -44751,7 +44751,7 @@
         <v>5</v>
       </c>
       <c r="M1082" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083">
@@ -44792,7 +44792,7 @@
         <v>0</v>
       </c>
       <c r="M1083" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084">
@@ -45161,7 +45161,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1092" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093">
@@ -45202,7 +45202,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1093" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094">
@@ -45325,7 +45325,7 @@
         <v>5</v>
       </c>
       <c r="M1096" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097">
@@ -45776,7 +45776,7 @@
         <v>0</v>
       </c>
       <c r="M1107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108">
@@ -45817,7 +45817,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109">
@@ -46145,7 +46145,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117">
@@ -46678,7 +46678,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -46883,7 +46883,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1134" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135">
@@ -46924,7 +46924,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136">
@@ -47375,7 +47375,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1146" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147">
@@ -47498,7 +47498,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1149" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150">
@@ -47539,7 +47539,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1150" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151">
@@ -47621,7 +47621,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153">
@@ -47662,7 +47662,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154">
@@ -48113,7 +48113,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1164" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
@@ -48564,7 +48564,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176">
@@ -48646,7 +48646,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1177" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178">
@@ -48687,7 +48687,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1178" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179">
@@ -48728,7 +48728,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1179" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180">
@@ -48810,7 +48810,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1181" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -48933,7 +48933,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1184" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185">
@@ -49261,7 +49261,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1192" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193">
@@ -49425,7 +49425,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -49958,7 +49958,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1209" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
@@ -50573,7 +50573,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1224" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225">
@@ -50942,7 +50942,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1233" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234">
@@ -51065,7 +51065,7 @@
         <v>0</v>
       </c>
       <c r="M1236" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -51229,7 +51229,7 @@
         <v>0</v>
       </c>
       <c r="M1240" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241">
@@ -51475,7 +51475,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1246" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247">
@@ -51844,7 +51844,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1255" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -51967,7 +51967,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1258" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -52049,7 +52049,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1260" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -52254,7 +52254,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1265" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -52336,7 +52336,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1267" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -52951,7 +52951,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1282" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -53156,7 +53156,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1287" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
@@ -53197,7 +53197,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1288" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289">
@@ -53238,7 +53238,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1289" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -53320,7 +53320,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1291" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292">
@@ -53361,7 +53361,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1292" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
@@ -53402,7 +53402,7 @@
         <v>0</v>
       </c>
       <c r="M1293" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294">
@@ -53689,7 +53689,7 @@
         <v>5</v>
       </c>
       <c r="M1300" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -53935,7 +53935,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1306" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -54017,7 +54017,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1308" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309">
@@ -54058,7 +54058,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -54263,7 +54263,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1314" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -54878,7 +54878,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1329" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -54960,7 +54960,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1331" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -55124,7 +55124,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1335" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
@@ -55165,7 +55165,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1336" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -55903,7 +55903,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1354" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -56026,7 +56026,7 @@
         <v>0</v>
       </c>
       <c r="M1357" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358">
@@ -56108,7 +56108,7 @@
         <v>5</v>
       </c>
       <c r="M1359" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360">
@@ -56436,7 +56436,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1367" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -56641,7 +56641,7 @@
         <v>5</v>
       </c>
       <c r="M1372" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -56682,7 +56682,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1373" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374">
@@ -56723,7 +56723,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1374" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375">
@@ -57051,7 +57051,7 @@
         <v>0</v>
       </c>
       <c r="M1382" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383">
@@ -57256,7 +57256,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1387" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -57297,7 +57297,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1388" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389">
@@ -58281,7 +58281,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1412" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413">
@@ -58322,7 +58322,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1413" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414">
@@ -58363,7 +58363,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1414" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415">
@@ -58609,7 +58609,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1420" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421">
@@ -58814,7 +58814,7 @@
         <v>5</v>
       </c>
       <c r="M1425" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426">
@@ -58937,7 +58937,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1428" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429">
@@ -59511,7 +59511,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1442" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1443">
@@ -59675,7 +59675,7 @@
         <v>0</v>
       </c>
       <c r="M1446" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447">
@@ -59839,7 +59839,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1450" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -59880,7 +59880,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1451" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452">
@@ -60003,7 +60003,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1454" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1455">
@@ -60331,7 +60331,7 @@
         <v>0</v>
       </c>
       <c r="M1462" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463">
@@ -60495,7 +60495,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="M1466" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1467">
@@ -60659,7 +60659,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="M1470" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1471">
